--- a/figs/data.xlsx
+++ b/figs/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Longshan Xu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\abuqiqi\AppData\OneDrive\2502-DQTetris\revision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9252B4B4-22BB-4F5E-AAED-C72BB9ED52C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="154" documentId="8_{827A712D-63C0-4E1A-BCAD-23C879432683}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{1969233A-21F0-49CA-8AE7-EB760AACF36A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11532" tabRatio="541" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535" tabRatio="541" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="qv_10" sheetId="10" r:id="rId1"/>
@@ -18,13 +18,15 @@
     <sheet name="qv_200" sheetId="12" r:id="rId3"/>
     <sheet name="diff" sheetId="11" r:id="rId4"/>
     <sheet name="diff_table" sheetId="13" r:id="rId5"/>
+    <sheet name="qv_10 crz" sheetId="15" r:id="rId6"/>
+    <sheet name="network" sheetId="14" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="37">
   <si>
     <t>Circuit</t>
   </si>
@@ -138,12 +140,28 @@
     <t>-</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>AutoComm</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoComm</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoComm</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,6 +323,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -770,7 +796,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -807,9 +833,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -826,6 +849,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1193,20 +1249,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFE4E15-E183-4780-A1B3-371C00833B5A}">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L62" sqref="L62"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="10.109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" style="6" customWidth="1"/>
-    <col min="6" max="11" width="12.33203125" style="6" customWidth="1"/>
+    <col min="1" max="4" width="10.125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="6" customWidth="1"/>
+    <col min="6" max="10" width="12.375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="10.75" customWidth="1"/>
+    <col min="12" max="12" width="12.375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1238,10 +1296,13 @@
         <v>8</v>
       </c>
       <c r="K1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>20</v>
       </c>
@@ -1272,11 +1333,14 @@
       <c r="J2" s="5">
         <v>112</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2">
+        <v>116</v>
+      </c>
+      <c r="L2" s="23">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>20</v>
       </c>
@@ -1307,11 +1371,14 @@
       <c r="J3" s="5">
         <v>35</v>
       </c>
-      <c r="K3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>20</v>
       </c>
@@ -1342,11 +1409,14 @@
       <c r="J4" s="5">
         <v>77</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4">
+        <v>111</v>
+      </c>
+      <c r="L4" s="23">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>20</v>
       </c>
@@ -1377,11 +1447,14 @@
       <c r="J5" s="5">
         <v>1.32561802864074</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5">
+        <v>0.292848110198974</v>
+      </c>
+      <c r="L5" s="23">
         <v>0.20830559730529699</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>30</v>
       </c>
@@ -1412,11 +1485,14 @@
       <c r="J6" s="5">
         <v>405</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6">
+        <v>300</v>
+      </c>
+      <c r="L6" s="23">
         <v>235</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>30</v>
       </c>
@@ -1447,11 +1523,14 @@
       <c r="J7" s="5">
         <v>221</v>
       </c>
-      <c r="K7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>13</v>
+      </c>
+      <c r="L7" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>30</v>
       </c>
@@ -1482,11 +1561,14 @@
       <c r="J8" s="5">
         <v>184</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8">
+        <v>287</v>
+      </c>
+      <c r="L8" s="23">
         <v>235</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>30</v>
       </c>
@@ -1517,11 +1599,14 @@
       <c r="J9" s="5">
         <v>2.11759257316589</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9">
+        <v>3.1687855720520002</v>
+      </c>
+      <c r="L9" s="23">
         <v>0.98397040367126398</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>40</v>
       </c>
@@ -1552,11 +1637,14 @@
       <c r="J10" s="5">
         <v>941</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10">
+        <v>668</v>
+      </c>
+      <c r="L10" s="23">
         <v>504</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>40</v>
       </c>
@@ -1587,11 +1675,14 @@
       <c r="J11" s="5">
         <v>623</v>
       </c>
-      <c r="K11" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>35</v>
+      </c>
+      <c r="L11" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>40</v>
       </c>
@@ -1622,11 +1713,14 @@
       <c r="J12" s="5">
         <v>318</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12">
+        <v>633</v>
+      </c>
+      <c r="L12" s="23">
         <v>504</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>40</v>
       </c>
@@ -1657,11 +1751,14 @@
       <c r="J13" s="5">
         <v>4.5243942737579301</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13">
+        <v>6.2632298469543404</v>
+      </c>
+      <c r="L13" s="23">
         <v>1.88732838630676</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>50</v>
       </c>
@@ -1692,11 +1789,14 @@
       <c r="J14" s="5">
         <v>1610</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14">
+        <v>1146</v>
+      </c>
+      <c r="L14" s="23">
         <v>855</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>50</v>
       </c>
@@ -1727,11 +1827,14 @@
       <c r="J15" s="5">
         <v>1164</v>
       </c>
-      <c r="K15" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>44</v>
+      </c>
+      <c r="L15" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>50</v>
       </c>
@@ -1762,11 +1865,14 @@
       <c r="J16" s="5">
         <v>446</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16">
+        <v>1102</v>
+      </c>
+      <c r="L16" s="23">
         <v>855</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>50</v>
       </c>
@@ -1797,11 +1903,14 @@
       <c r="J17" s="5">
         <v>8.2608206272125209</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17">
+        <v>16.575847864151001</v>
+      </c>
+      <c r="L17" s="23">
         <v>3.9046862125396702</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>60</v>
       </c>
@@ -1832,11 +1941,14 @@
       <c r="J18" s="5">
         <v>2548</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18">
+        <v>1715</v>
+      </c>
+      <c r="L18" s="23">
         <v>1369</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>60</v>
       </c>
@@ -1867,11 +1979,14 @@
       <c r="J19" s="5">
         <v>2018</v>
       </c>
-      <c r="K19" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>84</v>
+      </c>
+      <c r="L19" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>60</v>
       </c>
@@ -1902,11 +2017,14 @@
       <c r="J20" s="5">
         <v>530</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20">
+        <v>1631</v>
+      </c>
+      <c r="L20" s="23">
         <v>1369</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>60</v>
       </c>
@@ -1937,11 +2055,14 @@
       <c r="J21" s="5">
         <v>12.292686462402299</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21">
+        <v>38.428826808929401</v>
+      </c>
+      <c r="L21" s="23">
         <v>6.21669173240661</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>70</v>
       </c>
@@ -1969,11 +2090,14 @@
       <c r="J22" s="5">
         <v>3932</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22">
+        <v>2382</v>
+      </c>
+      <c r="L22" s="23">
         <v>1907</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>70</v>
       </c>
@@ -2001,11 +2125,14 @@
       <c r="J23" s="5">
         <v>3235</v>
       </c>
-      <c r="K23" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <v>114</v>
+      </c>
+      <c r="L23" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>70</v>
       </c>
@@ -2033,11 +2160,14 @@
       <c r="J24" s="5">
         <v>697</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24">
+        <v>2268</v>
+      </c>
+      <c r="L24" s="23">
         <v>1907</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>70</v>
       </c>
@@ -2065,11 +2195,14 @@
       <c r="J25" s="5">
         <v>19.817663431167599</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25">
+        <v>74.623671054840003</v>
+      </c>
+      <c r="L25" s="23">
         <v>13.363558530807399</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>80</v>
       </c>
@@ -2097,11 +2230,14 @@
       <c r="J26" s="5">
         <v>5580</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26">
+        <v>3268</v>
+      </c>
+      <c r="L26" s="23">
         <v>2583</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>80</v>
       </c>
@@ -2129,11 +2265,14 @@
       <c r="J27" s="5">
         <v>4792</v>
       </c>
-      <c r="K27" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <v>163</v>
+      </c>
+      <c r="L27" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>80</v>
       </c>
@@ -2161,11 +2300,14 @@
       <c r="J28" s="5">
         <v>788</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28">
+        <v>3105</v>
+      </c>
+      <c r="L28" s="23">
         <v>2583</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>80</v>
       </c>
@@ -2193,11 +2335,14 @@
       <c r="J29" s="5">
         <v>28.015483856201101</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29">
+        <v>139.71363401412901</v>
+      </c>
+      <c r="L29" s="23">
         <v>18.4541690349578</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>90</v>
       </c>
@@ -2225,11 +2370,14 @@
       <c r="J30" s="5">
         <v>7355</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30">
+        <v>4198</v>
+      </c>
+      <c r="L30" s="23">
         <v>3435</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>90</v>
       </c>
@@ -2257,11 +2405,14 @@
       <c r="J31" s="5">
         <v>6420</v>
       </c>
-      <c r="K31" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>201</v>
+      </c>
+      <c r="L31" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>90</v>
       </c>
@@ -2289,11 +2440,14 @@
       <c r="J32" s="5">
         <v>935</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32">
+        <v>3997</v>
+      </c>
+      <c r="L32" s="23">
         <v>3435</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>90</v>
       </c>
@@ -2321,11 +2475,14 @@
       <c r="J33" s="5">
         <v>39.9279685020446</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33">
+        <v>243.38721966743401</v>
+      </c>
+      <c r="L33" s="23">
         <v>24.843380689620901</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>100</v>
       </c>
@@ -2355,10 +2512,13 @@
         <v>9358</v>
       </c>
       <c r="K34" s="5">
+        <v>5318</v>
+      </c>
+      <c r="L34" s="23">
         <v>4359</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>100</v>
       </c>
@@ -2388,10 +2548,13 @@
         <v>8283</v>
       </c>
       <c r="K35" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="L35" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>100</v>
       </c>
@@ -2421,10 +2584,13 @@
         <v>1075</v>
       </c>
       <c r="K36" s="5">
+        <v>5086</v>
+      </c>
+      <c r="L36" s="23">
         <v>4359</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>100</v>
       </c>
@@ -2454,10 +2620,13 @@
         <v>55.662043571472097</v>
       </c>
       <c r="K37" s="5">
+        <v>395.374047279357</v>
+      </c>
+      <c r="L37" s="23">
         <v>32.8992307186126</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>110</v>
       </c>
@@ -2487,10 +2656,13 @@
         <v>11846</v>
       </c>
       <c r="K38" s="5">
+        <v>6474</v>
+      </c>
+      <c r="L38" s="23">
         <v>5406</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>110</v>
       </c>
@@ -2518,11 +2690,14 @@
       <c r="J39" s="5">
         <v>10723</v>
       </c>
-      <c r="K39" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K39">
+        <v>313</v>
+      </c>
+      <c r="L39" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>110</v>
       </c>
@@ -2550,11 +2725,14 @@
       <c r="J40" s="5">
         <v>1123</v>
       </c>
-      <c r="K40" s="5">
+      <c r="K40">
+        <v>6161</v>
+      </c>
+      <c r="L40" s="23">
         <v>5406</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>110</v>
       </c>
@@ -2582,11 +2760,14 @@
       <c r="J41" s="5">
         <v>71.361370801925602</v>
       </c>
-      <c r="K41" s="5">
+      <c r="K41">
+        <v>593.91403865814198</v>
+      </c>
+      <c r="L41" s="23">
         <v>42.144160032272303</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>120</v>
       </c>
@@ -2614,11 +2795,14 @@
       <c r="J42" s="5">
         <v>14518</v>
       </c>
-      <c r="K42" s="5">
+      <c r="K42">
+        <v>7806</v>
+      </c>
+      <c r="L42" s="23">
         <v>6543</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>120</v>
       </c>
@@ -2646,11 +2830,14 @@
       <c r="J43" s="5">
         <v>13243</v>
       </c>
-      <c r="K43" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K43">
+        <v>398</v>
+      </c>
+      <c r="L43" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>120</v>
       </c>
@@ -2678,11 +2865,14 @@
       <c r="J44" s="5">
         <v>1275</v>
       </c>
-      <c r="K44" s="5">
+      <c r="K44">
+        <v>7408</v>
+      </c>
+      <c r="L44" s="23">
         <v>6543</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>120</v>
       </c>
@@ -2710,11 +2900,14 @@
       <c r="J45" s="5">
         <v>96.919875621795597</v>
       </c>
-      <c r="K45" s="5">
+      <c r="K45">
+        <v>922.41061234474103</v>
+      </c>
+      <c r="L45" s="23">
         <v>56.324688911437903</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>130</v>
       </c>
@@ -2742,11 +2935,14 @@
       <c r="J46" s="5">
         <v>17581</v>
       </c>
-      <c r="K46" s="5">
+      <c r="K46">
+        <v>9257</v>
+      </c>
+      <c r="L46" s="23">
         <v>7834</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>130</v>
       </c>
@@ -2774,11 +2970,14 @@
       <c r="J47" s="5">
         <v>16085</v>
       </c>
-      <c r="K47" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K47">
+        <v>478</v>
+      </c>
+      <c r="L47" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>130</v>
       </c>
@@ -2806,11 +3005,14 @@
       <c r="J48" s="5">
         <v>1496</v>
       </c>
-      <c r="K48" s="5">
+      <c r="K48">
+        <v>8779</v>
+      </c>
+      <c r="L48" s="23">
         <v>7834</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>130</v>
       </c>
@@ -2838,11 +3040,14 @@
       <c r="J49" s="5">
         <v>125.34856557846</v>
       </c>
-      <c r="K49" s="5">
+      <c r="K49">
+        <v>1279.31143641471</v>
+      </c>
+      <c r="L49" s="23">
         <v>72.194748163223196</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>140</v>
       </c>
@@ -2868,11 +3073,14 @@
       <c r="J50" s="5">
         <v>20593</v>
       </c>
-      <c r="K50" s="5">
+      <c r="K50">
+        <v>10871</v>
+      </c>
+      <c r="L50" s="23">
         <v>9188</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>140</v>
       </c>
@@ -2898,11 +3106,14 @@
       <c r="J51" s="5">
         <v>19052</v>
       </c>
-      <c r="K51" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K51">
+        <v>555</v>
+      </c>
+      <c r="L51" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>140</v>
       </c>
@@ -2928,11 +3139,14 @@
       <c r="J52" s="5">
         <v>1541</v>
       </c>
-      <c r="K52" s="5">
+      <c r="K52">
+        <v>10316</v>
+      </c>
+      <c r="L52" s="23">
         <v>9188</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>140</v>
       </c>
@@ -2958,11 +3172,14 @@
       <c r="J53" s="5">
         <v>163.50979423522901</v>
       </c>
-      <c r="K53" s="5">
+      <c r="K53">
+        <v>1974.1659517288199</v>
+      </c>
+      <c r="L53" s="23">
         <v>93.259409189224201</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>150</v>
       </c>
@@ -2988,11 +3205,14 @@
       <c r="J54" s="5">
         <v>24156</v>
       </c>
-      <c r="K54" s="5">
+      <c r="K54">
+        <v>12563</v>
+      </c>
+      <c r="L54" s="23">
         <v>10664</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>150</v>
       </c>
@@ -3018,11 +3238,14 @@
       <c r="J55" s="5">
         <v>22464</v>
       </c>
-      <c r="K55" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K55">
+        <v>665</v>
+      </c>
+      <c r="L55" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>150</v>
       </c>
@@ -3048,11 +3271,14 @@
       <c r="J56" s="5">
         <v>1692</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56">
+        <v>11898</v>
+      </c>
+      <c r="L56" s="23">
         <v>10664</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>150</v>
       </c>
@@ -3078,11 +3304,14 @@
       <c r="J57" s="5">
         <v>216.657192707061</v>
       </c>
-      <c r="K57" s="5">
+      <c r="K57">
+        <v>2718.8421573638898</v>
+      </c>
+      <c r="L57" s="23">
         <v>128.849107742309</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>160</v>
       </c>
@@ -3108,11 +3337,14 @@
       <c r="J58" s="5">
         <v>28032</v>
       </c>
-      <c r="K58" s="5">
+      <c r="K58">
+        <v>14326</v>
+      </c>
+      <c r="L58" s="23">
         <v>12315</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>160</v>
       </c>
@@ -3138,11 +3370,14 @@
       <c r="J59" s="5">
         <v>26116</v>
       </c>
-      <c r="K59" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K59">
+        <v>729</v>
+      </c>
+      <c r="L59" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>160</v>
       </c>
@@ -3168,11 +3403,14 @@
       <c r="J60" s="5">
         <v>1916</v>
       </c>
-      <c r="K60" s="5">
+      <c r="K60">
+        <v>13597</v>
+      </c>
+      <c r="L60" s="23">
         <v>12315</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>160</v>
       </c>
@@ -3198,7 +3436,10 @@
       <c r="J61" s="5">
         <v>267.36299467086701</v>
       </c>
-      <c r="K61" s="5">
+      <c r="K61">
+        <v>3797.8189864158599</v>
+      </c>
+      <c r="L61" s="23">
         <v>187.78266572952199</v>
       </c>
     </row>
@@ -3214,16 +3455,16 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="8.88671875" style="1"/>
+    <col min="1" max="8" width="8.875" style="1"/>
     <col min="9" max="10" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3255,7 +3496,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -3287,7 +3528,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -3319,7 +3560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -3351,7 +3592,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -3383,7 +3624,7 @@
         <v>31.629962444305399</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -3415,7 +3656,7 @@
         <v>6805</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -3447,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3479,7 +3720,7 @@
         <v>6805</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -3511,7 +3752,7 @@
         <v>100.290930747985</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -3543,7 +3784,7 @@
         <v>13959</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -3575,7 +3816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -3607,7 +3848,7 @@
         <v>13959</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -3639,7 +3880,7 @@
         <v>244.91501975059501</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -3671,7 +3912,7 @@
         <v>23767</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -3703,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -3735,7 +3976,7 @@
         <v>23767</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -3767,7 +4008,7 @@
         <v>533.22908687591496</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -3799,7 +4040,7 @@
         <v>36268</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
@@ -3831,7 +4072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
@@ -3863,7 +4104,7 @@
         <v>36268</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
@@ -3895,7 +4136,7 @@
         <v>979.21436524391095</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -3927,7 +4168,7 @@
         <v>51389</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -3959,7 +4200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -3991,7 +4232,7 @@
         <v>51389</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
@@ -4035,15 +4276,15 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="8.88671875" style="1"/>
+    <col min="1" max="10" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4075,7 +4316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -4107,7 +4348,7 @@
         <v>8686</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -4139,7 +4380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -4171,7 +4412,7 @@
         <v>8686</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -4203,7 +4444,7 @@
         <v>241.919125556945</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -4235,7 +4476,7 @@
         <v>12620</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -4267,7 +4508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -4299,7 +4540,7 @@
         <v>12620</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -4331,7 +4572,7 @@
         <v>241.447933197021</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -4363,7 +4604,7 @@
         <v>13959</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -4395,7 +4636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -4427,7 +4668,7 @@
         <v>13959</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -4459,7 +4700,7 @@
         <v>244.55987071990899</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -4491,7 +4732,7 @@
         <v>15116</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -4523,7 +4764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -4555,7 +4796,7 @@
         <v>15116</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -4587,7 +4828,7 @@
         <v>244.48233890533399</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -4619,7 +4860,7 @@
         <v>16273</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
@@ -4651,7 +4892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
@@ -4683,7 +4924,7 @@
         <v>16273</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
@@ -4715,7 +4956,7 @@
         <v>243.31651020050001</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -4747,7 +4988,7 @@
         <v>17261</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -4779,7 +5020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -4811,7 +5052,7 @@
         <v>17261</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
@@ -4843,7 +5084,7 @@
         <v>243.02211403846701</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
@@ -4875,7 +5116,7 @@
         <v>17677</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
@@ -4907,7 +5148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
@@ -4939,7 +5180,7 @@
         <v>17677</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -4971,7 +5212,7 @@
         <v>235.555604457855</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
@@ -5003,7 +5244,7 @@
         <v>18355</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
@@ -5035,7 +5276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>10</v>
       </c>
@@ -5067,7 +5308,7 @@
         <v>18355</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
@@ -5099,7 +5340,7 @@
         <v>245.98027896881101</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
@@ -5131,7 +5372,7 @@
         <v>17929</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
@@ -5163,7 +5404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
@@ -5195,7 +5436,7 @@
         <v>17929</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
@@ -5230,26 +5471,28 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527B3365-C1C2-463C-A6D9-5C4C3358ED4D}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" style="6" customWidth="1"/>
-    <col min="2" max="9" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="15.875" style="6" customWidth="1"/>
+    <col min="2" max="9" width="8.875" style="6"/>
     <col min="10" max="10" width="9" style="6"/>
-    <col min="11" max="11" width="8.88671875" style="6"/>
+    <col min="11" max="11" width="9" style="5"/>
+    <col min="12" max="12" width="8.875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5281,10 +5524,13 @@
         <v>17</v>
       </c>
       <c r="K1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>21</v>
       </c>
@@ -5316,10 +5562,13 @@
         <v>8493</v>
       </c>
       <c r="K2" s="6">
+        <v>4804</v>
+      </c>
+      <c r="L2" s="21">
         <v>3408</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>21</v>
       </c>
@@ -5351,10 +5600,13 @@
         <v>8493</v>
       </c>
       <c r="K3" s="6">
+        <v>1826</v>
+      </c>
+      <c r="L3" s="21">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>21</v>
       </c>
@@ -5386,10 +5638,13 @@
         <v>0</v>
       </c>
       <c r="K4" s="6">
+        <v>2978</v>
+      </c>
+      <c r="L4" s="21">
         <v>3399</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
@@ -5420,11 +5675,14 @@
       <c r="J5" s="6">
         <v>48.359781980514498</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
+        <v>236.73269987106301</v>
+      </c>
+      <c r="L5" s="21">
         <v>395.190686941146</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
@@ -5456,10 +5714,13 @@
         <v>51840</v>
       </c>
       <c r="K6" s="6">
+        <v>20385</v>
+      </c>
+      <c r="L6" s="21">
         <v>16315</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
@@ -5491,10 +5752,13 @@
         <v>51840</v>
       </c>
       <c r="K7" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>8411</v>
+      </c>
+      <c r="L7" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
@@ -5526,10 +5790,13 @@
         <v>0</v>
       </c>
       <c r="K8" s="6">
+        <v>11974</v>
+      </c>
+      <c r="L8" s="21">
         <v>16315</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
@@ -5560,11 +5827,14 @@
       <c r="J9" s="6">
         <v>457.05709099769501</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
+        <v>4524.0861089229502</v>
+      </c>
+      <c r="L9" s="21">
         <v>2354.4992592334702</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
@@ -5595,11 +5865,14 @@
       <c r="J10" s="6">
         <v>51195</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
+        <v>7700</v>
+      </c>
+      <c r="L10" s="21">
         <v>4635</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
@@ -5630,11 +5903,14 @@
       <c r="J11" s="6">
         <v>51195</v>
       </c>
-      <c r="K11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K11" s="5">
+        <v>5</v>
+      </c>
+      <c r="L11" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
@@ -5665,11 +5941,14 @@
       <c r="J12" s="6">
         <v>0</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
+        <v>7695</v>
+      </c>
+      <c r="L12" s="21">
         <v>4635</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>22</v>
       </c>
@@ -5700,11 +5979,14 @@
       <c r="J13" s="6">
         <v>264.37443161010702</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
+        <v>3589.9264988898999</v>
+      </c>
+      <c r="L13" s="21">
         <v>4021.66672134399</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
@@ -5736,10 +6018,13 @@
         <v>7018</v>
       </c>
       <c r="K14" s="6">
+        <v>1279</v>
+      </c>
+      <c r="L14" s="21">
         <v>961</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>23</v>
       </c>
@@ -5771,10 +6056,13 @@
         <v>7018</v>
       </c>
       <c r="K15" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="L15" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>23</v>
       </c>
@@ -5806,10 +6094,13 @@
         <v>0</v>
       </c>
       <c r="K16" s="6">
+        <v>820</v>
+      </c>
+      <c r="L16" s="21">
         <v>961</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>23</v>
       </c>
@@ -5840,11 +6131,14 @@
       <c r="J17" s="6">
         <v>47.274035453796301</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="5">
+        <v>56.251437664031002</v>
+      </c>
+      <c r="L17" s="21">
         <v>684.58958411216702</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>20</v>
       </c>
@@ -5875,11 +6169,14 @@
       <c r="J18" s="6">
         <v>21</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>20</v>
       </c>
@@ -5910,11 +6207,14 @@
       <c r="J19" s="6">
         <v>21</v>
       </c>
-      <c r="K19" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+      <c r="L19" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
@@ -5945,11 +6245,14 @@
       <c r="J20" s="6">
         <v>0</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
@@ -5980,11 +6283,14 @@
       <c r="J21" s="6">
         <v>29.6217954158782</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="5">
+        <v>1.14260673522949</v>
+      </c>
+      <c r="L21" s="21">
         <v>0.329379081726074</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>24</v>
       </c>
@@ -6016,10 +6322,13 @@
         <v>86</v>
       </c>
       <c r="K22" s="6">
+        <v>188</v>
+      </c>
+      <c r="L22" s="21">
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>24</v>
       </c>
@@ -6051,10 +6360,13 @@
         <v>86</v>
       </c>
       <c r="K23" s="6">
+        <v>100</v>
+      </c>
+      <c r="L23" s="21">
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
@@ -6086,10 +6398,13 @@
         <v>0</v>
       </c>
       <c r="K24" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="L24" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
@@ -6120,9 +6435,44 @@
       <c r="J25" s="6">
         <v>400.18618702888398</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="5">
+        <v>1.2025420665740001</v>
+      </c>
+      <c r="L25" s="21">
         <v>453.106878519058</v>
       </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="22"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="22"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="22"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -6133,18 +6483,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD68EAF4-6F72-4FD7-9EAF-C812376C602F}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="11" width="15.21875" style="2" customWidth="1"/>
+    <col min="1" max="12" width="15.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -6173,24 +6523,27 @@
       <c r="J1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="29">
         <v>70</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="29">
         <v>6341</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="29">
         <v>78634</v>
       </c>
       <c r="F2" s="11" t="s">
@@ -6208,78 +6561,87 @@
       <c r="J2" s="11">
         <v>8493</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="18">
+        <v>4804</v>
+      </c>
+      <c r="L2" s="15">
         <v>3408</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>0</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
       <c r="F3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="24">
         <v>0.66436899999999999</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="24">
         <v>0.62541199999999997</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="24">
         <v>0.50240899999999999</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="24">
         <v>0.59872800000000004</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="24">
+        <v>0.29059099999999999</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="13" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="14">
         <v>0.01</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="25">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="25">
         <v>0.9</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="25">
         <v>0.81</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="25">
+        <v>3.95</v>
+      </c>
+      <c r="L4" s="25">
         <v>6.59</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="29">
         <v>130</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="29">
         <v>12479</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="29">
         <v>276157</v>
       </c>
       <c r="F5" s="11" t="s">
@@ -6297,94 +6659,103 @@
       <c r="J5" s="11">
         <v>51840</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="18">
+        <v>20385</v>
+      </c>
+      <c r="L5" s="15">
         <v>16315</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="30">
         <v>130</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="30">
         <v>12479</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="30">
         <v>276157</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="24">
         <v>0.61975000000000002</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="24">
         <v>0.796956</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="24">
         <v>0.50958899999999996</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="24">
         <v>0.68528199999999995</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="24">
+        <v>0.199657</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>7</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="31">
         <v>130</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="31">
         <v>12479</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="31">
         <v>276157</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="25">
         <v>0.09</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="25">
         <v>86.31</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="25">
         <v>5.77</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="25">
         <v>7.62</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="25">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="L7" s="25">
         <v>39.24</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>8</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="29">
         <v>130</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="29">
         <v>7219</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="29">
         <v>320686</v>
       </c>
       <c r="F8" s="11" t="s">
@@ -6402,94 +6773,103 @@
       <c r="J8" s="11">
         <v>51195</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="18">
+        <v>7700</v>
+      </c>
+      <c r="L8" s="15">
         <v>4635</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="30">
         <v>130</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="30">
         <v>7219</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="30">
         <v>320686</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="24">
         <v>0.91954800000000003</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="24">
         <v>0.90142500000000003</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="24">
         <v>0.85813499999999998</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="24">
         <v>0.90946400000000005</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="24">
+        <v>0.39805200000000002</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>11</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="31">
         <v>130</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="31">
         <v>7219</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="31">
         <v>320686</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="14">
         <v>0.01</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="25">
         <v>121.28</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="25">
         <v>3.5</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="25">
         <v>4.41</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="25">
+        <v>59.83</v>
+      </c>
+      <c r="L10" s="25">
         <v>67.03</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>12</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="29">
         <v>75</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="29">
         <v>10138</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="29">
         <v>24414</v>
       </c>
       <c r="F11" s="11" t="s">
@@ -6507,94 +6887,103 @@
       <c r="J11" s="11">
         <v>7018</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="18">
+        <v>1279</v>
+      </c>
+      <c r="L11" s="15">
         <v>961</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>12</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="30">
         <v>75</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="30">
         <v>10138</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="30">
         <v>24414</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="24">
         <v>0.48664499999999999</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="24">
         <v>0.47226800000000002</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="24">
         <v>0.45889600000000003</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="24">
         <v>0.863066</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="24">
+        <v>0.24863199999999999</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>15</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="31">
         <v>75</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="31">
         <v>10138</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="31">
         <v>24414</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="14">
         <v>0.01</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="25">
         <v>19.04</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="25">
         <v>1.63</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="25">
         <v>0.79</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="25">
+        <v>0.94</v>
+      </c>
+      <c r="L13" s="25">
         <v>11.41</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>16</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="29">
         <v>420</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="29">
         <v>37</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="29">
         <v>9009</v>
       </c>
       <c r="F14" s="11" t="s">
@@ -6612,94 +7001,103 @@
       <c r="J14" s="11">
         <v>21</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="15">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>16</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="30">
         <v>420</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="30">
         <v>37</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="30">
         <v>9009</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="24">
         <v>0.75</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="24">
         <v>0.78947400000000001</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="24">
         <v>0.75</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="24">
         <v>4.7619000000000002E-2</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="24">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>19</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="31">
         <v>420</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="31">
         <v>37</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="31">
         <v>9009</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="25">
         <v>4.5599999999999996</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="25">
         <v>3.95</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="25">
         <v>48.79</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="25">
         <v>0.49</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="L16" s="14">
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>20</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="29">
         <v>100</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="29">
         <v>248</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="29">
         <v>3825</v>
       </c>
       <c r="F17" s="11" t="s">
@@ -6714,168 +7112,189 @@
       <c r="I17" s="11">
         <v>987</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J17" s="15">
         <v>86</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K17" s="27">
+        <v>188</v>
+      </c>
+      <c r="L17" s="15">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>20</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="30">
         <v>100</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="30">
         <v>248</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="30">
         <v>3825</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="24">
         <v>0.964167</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="24">
         <v>0.92921799999999999</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="24">
         <v>0.91286699999999998</v>
       </c>
-      <c r="J18" s="12">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3" t="s">
+      <c r="J18" s="24">
+        <v>0</v>
+      </c>
+      <c r="K18" s="24">
+        <v>0.54255299999999995</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>23</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="31">
         <v>100</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="31">
         <v>248</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="31">
         <v>3825</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="14">
         <v>0.01</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="25">
         <v>1.46</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="25">
         <v>0.56000000000000005</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="25">
         <v>6.67</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="L19" s="25">
         <v>7.55</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="19" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
       <c r="F20" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="13">
         <f>AVERAGE(G2,G5,G8,G11,G14,G17)</f>
         <v>19170.666666666668</v>
       </c>
-      <c r="H20" s="14">
-        <f t="shared" ref="H20:K20" si="0">AVERAGE(H2,H5,H8,H11,H14,H17)</f>
+      <c r="H20" s="13">
+        <f t="shared" ref="H20:L20" si="0">AVERAGE(H2,H5,H8,H11,H14,H17)</f>
         <v>23266.833333333332</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="13">
         <f t="shared" si="0"/>
         <v>12605.333333333334</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="13">
         <f t="shared" si="0"/>
         <v>19775.5</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K20" s="13">
+        <f t="shared" ref="K20" si="1">AVERAGE(K2,K5,K8,K11,K14,K17)</f>
+        <v>5729.333333333333</v>
+      </c>
+      <c r="L20" s="16">
         <f t="shared" si="0"/>
         <v>4237.5</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
       <c r="F21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="12">
-        <f t="shared" ref="G21:J21" si="1">AVERAGE(G3,G6,G9,G12,G15,G18)</f>
+      <c r="G21" s="28">
+        <f t="shared" ref="G21:J21" si="2">AVERAGE(G3,G6,G9,G12,G15,G18)</f>
         <v>0.73407983333333338</v>
       </c>
-      <c r="H21" s="12">
-        <f t="shared" si="1"/>
+      <c r="H21" s="28">
+        <f t="shared" si="2"/>
         <v>0.7524588333333333</v>
       </c>
-      <c r="I21" s="12">
-        <f t="shared" si="1"/>
+      <c r="I21" s="28">
+        <f t="shared" si="2"/>
         <v>0.66531600000000002</v>
       </c>
-      <c r="J21" s="12">
-        <f t="shared" si="1"/>
+      <c r="J21" s="28">
+        <f t="shared" si="2"/>
         <v>0.51735983333333335</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="28">
+        <f t="shared" ref="K21" si="3">AVERAGE(K3,K6,K9,K12,K15,K18)</f>
+        <v>0.27991416666666669</v>
+      </c>
+      <c r="L21" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="13" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="15">
-        <f t="shared" ref="G22:K22" si="2">AVERAGE(G4,G7,G10,G13,G16,G19)</f>
+      <c r="G22" s="26">
+        <f t="shared" ref="G22:L22" si="4">AVERAGE(G4,G7,G10,G13,G16,G19)</f>
         <v>0.78166666666666662</v>
       </c>
-      <c r="H22" s="15">
-        <f t="shared" si="2"/>
+      <c r="H22" s="26">
+        <f t="shared" si="4"/>
         <v>39.523333333333333</v>
       </c>
-      <c r="I22" s="15">
-        <f t="shared" si="2"/>
+      <c r="I22" s="26">
+        <f t="shared" si="4"/>
         <v>10.191666666666668</v>
       </c>
-      <c r="J22" s="15">
-        <f t="shared" si="2"/>
+      <c r="J22" s="26">
+        <f t="shared" si="4"/>
         <v>3.4649999999999999</v>
       </c>
-      <c r="K22" s="15">
-        <f t="shared" si="2"/>
+      <c r="K22" s="26">
+        <f t="shared" ref="K22" si="5">AVERAGE(K4,K7,K10,K13,K16,K19)</f>
+        <v>23.360000000000003</v>
+      </c>
+      <c r="L22" s="26">
+        <f t="shared" si="4"/>
         <v>21.971666666666668</v>
       </c>
     </row>
@@ -6897,17 +7316,2748 @@
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="D11:D13"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="D14:D16"/>
     <mergeCell ref="E14:E16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8CB225-82E9-4FF3-B885-200CB0A48BCE}">
+  <dimension ref="A1:J61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="10.125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="6" customWidth="1"/>
+    <col min="6" max="7" width="12.375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.75" style="5" customWidth="1"/>
+    <col min="9" max="9" width="12.375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>1860</v>
+      </c>
+      <c r="C2">
+        <v>31200</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>240</v>
+      </c>
+      <c r="G2">
+        <v>54</v>
+      </c>
+      <c r="H2">
+        <v>243</v>
+      </c>
+      <c r="I2">
+        <v>119</v>
+      </c>
+      <c r="J2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>1860</v>
+      </c>
+      <c r="C3">
+        <v>31200</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>240</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>175</v>
+      </c>
+      <c r="I3">
+        <v>37</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>1860</v>
+      </c>
+      <c r="C4">
+        <v>31200</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>54</v>
+      </c>
+      <c r="H4">
+        <v>68</v>
+      </c>
+      <c r="I4">
+        <v>82</v>
+      </c>
+      <c r="J4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>1860</v>
+      </c>
+      <c r="C5">
+        <v>31200</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>5.6977748870849602E-2</v>
+      </c>
+      <c r="G5">
+        <v>13.423974037170399</v>
+      </c>
+      <c r="H5">
+        <v>9.65093994140625</v>
+      </c>
+      <c r="I5">
+        <v>3.9956519603729199</v>
+      </c>
+      <c r="J5">
+        <v>0.472862958908081</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>2790</v>
+      </c>
+      <c r="C6">
+        <v>70200</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>738</v>
+      </c>
+      <c r="G6">
+        <v>203</v>
+      </c>
+      <c r="H6">
+        <v>759</v>
+      </c>
+      <c r="I6">
+        <v>476</v>
+      </c>
+      <c r="J6">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>2790</v>
+      </c>
+      <c r="C7">
+        <v>70200</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>738</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>582</v>
+      </c>
+      <c r="I7">
+        <v>248</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>2790</v>
+      </c>
+      <c r="C8">
+        <v>70200</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>203</v>
+      </c>
+      <c r="H8">
+        <v>177</v>
+      </c>
+      <c r="I8">
+        <v>228</v>
+      </c>
+      <c r="J8">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>2790</v>
+      </c>
+      <c r="C9">
+        <v>70200</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>9.5153093338012695E-2</v>
+      </c>
+      <c r="G9">
+        <v>42.351236343383697</v>
+      </c>
+      <c r="H9">
+        <v>32.003355979919398</v>
+      </c>
+      <c r="I9">
+        <v>8.86150670051574</v>
+      </c>
+      <c r="J9">
+        <v>1.40717768669128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>3720</v>
+      </c>
+      <c r="C10">
+        <v>124800</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>1608</v>
+      </c>
+      <c r="G10">
+        <v>801</v>
+      </c>
+      <c r="H10">
+        <v>1565</v>
+      </c>
+      <c r="I10">
+        <v>840</v>
+      </c>
+      <c r="J10">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>3720</v>
+      </c>
+      <c r="C11">
+        <v>124800</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>1608</v>
+      </c>
+      <c r="G11">
+        <v>18</v>
+      </c>
+      <c r="H11">
+        <v>1255</v>
+      </c>
+      <c r="I11">
+        <v>479</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>3720</v>
+      </c>
+      <c r="C12">
+        <v>124800</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>783</v>
+      </c>
+      <c r="H12">
+        <v>310</v>
+      </c>
+      <c r="I12">
+        <v>361</v>
+      </c>
+      <c r="J12">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>3720</v>
+      </c>
+      <c r="C13">
+        <v>124800</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13">
+        <v>0.195772409439086</v>
+      </c>
+      <c r="G13">
+        <v>107.878546953201</v>
+      </c>
+      <c r="H13">
+        <v>106.53290367126399</v>
+      </c>
+      <c r="I13">
+        <v>15.0303037166595</v>
+      </c>
+      <c r="J13">
+        <v>2.9879984855651802</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>4650</v>
+      </c>
+      <c r="C14">
+        <v>195000</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <v>2652</v>
+      </c>
+      <c r="G14">
+        <v>3272</v>
+      </c>
+      <c r="H14" s="5">
+        <v>2781</v>
+      </c>
+      <c r="I14">
+        <v>1727</v>
+      </c>
+      <c r="J14">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>50</v>
+      </c>
+      <c r="B15">
+        <v>4650</v>
+      </c>
+      <c r="C15">
+        <v>195000</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>2652</v>
+      </c>
+      <c r="G15">
+        <v>128</v>
+      </c>
+      <c r="H15" s="5">
+        <v>2387</v>
+      </c>
+      <c r="I15">
+        <v>1230</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>50</v>
+      </c>
+      <c r="B16">
+        <v>4650</v>
+      </c>
+      <c r="C16">
+        <v>195000</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>3144</v>
+      </c>
+      <c r="H16" s="5">
+        <v>394</v>
+      </c>
+      <c r="I16">
+        <v>497</v>
+      </c>
+      <c r="J16">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>50</v>
+      </c>
+      <c r="B17">
+        <v>4650</v>
+      </c>
+      <c r="C17">
+        <v>195000</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17">
+        <v>0.370057582855224</v>
+      </c>
+      <c r="G17">
+        <v>237.04645204543999</v>
+      </c>
+      <c r="H17" s="5">
+        <v>168.78293967247001</v>
+      </c>
+      <c r="I17">
+        <v>26.130954504013001</v>
+      </c>
+      <c r="J17">
+        <v>5.1508948802947998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>60</v>
+      </c>
+      <c r="B18">
+        <v>5580</v>
+      </c>
+      <c r="C18">
+        <v>280800</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18">
+        <v>4056</v>
+      </c>
+      <c r="G18">
+        <v>8448</v>
+      </c>
+      <c r="H18">
+        <v>4065</v>
+      </c>
+      <c r="I18">
+        <v>2708</v>
+      </c>
+      <c r="J18">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>60</v>
+      </c>
+      <c r="B19">
+        <v>5580</v>
+      </c>
+      <c r="C19">
+        <v>280800</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19">
+        <v>4056</v>
+      </c>
+      <c r="G19">
+        <v>495</v>
+      </c>
+      <c r="H19">
+        <v>3594</v>
+      </c>
+      <c r="I19">
+        <v>2057</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>60</v>
+      </c>
+      <c r="B20">
+        <v>5580</v>
+      </c>
+      <c r="C20">
+        <v>280800</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>7953</v>
+      </c>
+      <c r="H20">
+        <v>471</v>
+      </c>
+      <c r="I20">
+        <v>651</v>
+      </c>
+      <c r="J20">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>60</v>
+      </c>
+      <c r="B21">
+        <v>5580</v>
+      </c>
+      <c r="C21">
+        <v>280800</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21">
+        <v>0.61382985115051203</v>
+      </c>
+      <c r="G21">
+        <v>460.31490755081097</v>
+      </c>
+      <c r="H21">
+        <v>314.89934635162302</v>
+      </c>
+      <c r="I21">
+        <v>37.5231869220733</v>
+      </c>
+      <c r="J21">
+        <v>8.2496249675750697</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>70</v>
+      </c>
+      <c r="B22">
+        <v>6510</v>
+      </c>
+      <c r="C22">
+        <v>382200</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22">
+        <v>5736</v>
+      </c>
+      <c r="G22">
+        <v>14898</v>
+      </c>
+      <c r="H22" s="5">
+        <v>5808</v>
+      </c>
+      <c r="I22">
+        <v>4121</v>
+      </c>
+      <c r="J22">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>70</v>
+      </c>
+      <c r="B23">
+        <v>6510</v>
+      </c>
+      <c r="C23">
+        <v>382200</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23">
+        <v>5736</v>
+      </c>
+      <c r="G23">
+        <v>884</v>
+      </c>
+      <c r="H23" s="5">
+        <v>5184</v>
+      </c>
+      <c r="I23">
+        <v>3329</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>70</v>
+      </c>
+      <c r="B24">
+        <v>6510</v>
+      </c>
+      <c r="C24">
+        <v>382200</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>14014</v>
+      </c>
+      <c r="H24" s="5">
+        <v>624</v>
+      </c>
+      <c r="I24">
+        <v>792</v>
+      </c>
+      <c r="J24">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>70</v>
+      </c>
+      <c r="B25">
+        <v>6510</v>
+      </c>
+      <c r="C25">
+        <v>382200</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25">
+        <v>0.909384965896606</v>
+      </c>
+      <c r="G25">
+        <v>801.75735378265301</v>
+      </c>
+      <c r="H25" s="5">
+        <v>595.43765211105301</v>
+      </c>
+      <c r="I25">
+        <v>54.856537818908599</v>
+      </c>
+      <c r="J25">
+        <v>12.4634456634521</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>80</v>
+      </c>
+      <c r="B26">
+        <v>7440</v>
+      </c>
+      <c r="C26">
+        <v>499200</v>
+      </c>
+      <c r="D26">
+        <v>8</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26">
+        <v>7629</v>
+      </c>
+      <c r="G26">
+        <v>23063</v>
+      </c>
+      <c r="H26" s="5">
+        <v>7980</v>
+      </c>
+      <c r="I26">
+        <v>5478</v>
+      </c>
+      <c r="J26">
+        <v>3274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>80</v>
+      </c>
+      <c r="B27">
+        <v>7440</v>
+      </c>
+      <c r="C27">
+        <v>499200</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27">
+        <v>7629</v>
+      </c>
+      <c r="G27">
+        <v>1397</v>
+      </c>
+      <c r="H27" s="5">
+        <v>7361</v>
+      </c>
+      <c r="I27">
+        <v>4544</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>80</v>
+      </c>
+      <c r="B28">
+        <v>7440</v>
+      </c>
+      <c r="C28">
+        <v>499200</v>
+      </c>
+      <c r="D28">
+        <v>8</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>21666</v>
+      </c>
+      <c r="H28" s="5">
+        <v>619</v>
+      </c>
+      <c r="I28">
+        <v>934</v>
+      </c>
+      <c r="J28">
+        <v>3274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>80</v>
+      </c>
+      <c r="B29">
+        <v>7440</v>
+      </c>
+      <c r="C29">
+        <v>499200</v>
+      </c>
+      <c r="D29">
+        <v>8</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29">
+        <v>1.3746383190155</v>
+      </c>
+      <c r="G29">
+        <v>1327.86966776847</v>
+      </c>
+      <c r="H29" s="5">
+        <v>580.88675785064697</v>
+      </c>
+      <c r="I29">
+        <v>72.743613481521606</v>
+      </c>
+      <c r="J29">
+        <v>17.886890172958299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>90</v>
+      </c>
+      <c r="B30">
+        <v>8370</v>
+      </c>
+      <c r="C30">
+        <v>631800</v>
+      </c>
+      <c r="D30">
+        <v>9</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30">
+        <v>9936</v>
+      </c>
+      <c r="G30">
+        <v>33456</v>
+      </c>
+      <c r="H30" s="5">
+        <v>10332</v>
+      </c>
+      <c r="I30">
+        <v>7645</v>
+      </c>
+      <c r="J30">
+        <v>4321</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>90</v>
+      </c>
+      <c r="B31">
+        <v>8370</v>
+      </c>
+      <c r="C31">
+        <v>631800</v>
+      </c>
+      <c r="D31">
+        <v>9</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31">
+        <v>9936</v>
+      </c>
+      <c r="G31">
+        <v>2051</v>
+      </c>
+      <c r="H31" s="5">
+        <v>9555</v>
+      </c>
+      <c r="I31">
+        <v>6548</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>90</v>
+      </c>
+      <c r="B32">
+        <v>8370</v>
+      </c>
+      <c r="C32">
+        <v>631800</v>
+      </c>
+      <c r="D32">
+        <v>9</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>31405</v>
+      </c>
+      <c r="H32" s="5">
+        <v>777</v>
+      </c>
+      <c r="I32">
+        <v>1097</v>
+      </c>
+      <c r="J32">
+        <v>4321</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>90</v>
+      </c>
+      <c r="B33">
+        <v>8370</v>
+      </c>
+      <c r="C33">
+        <v>631800</v>
+      </c>
+      <c r="D33">
+        <v>9</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33">
+        <v>1.87706971168518</v>
+      </c>
+      <c r="G33">
+        <v>2083.49031209945</v>
+      </c>
+      <c r="H33" s="5">
+        <v>1014.59639501571</v>
+      </c>
+      <c r="I33">
+        <v>103.02055096626199</v>
+      </c>
+      <c r="J33">
+        <v>24.1511182785034</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <v>100</v>
+      </c>
+      <c r="B34" s="5">
+        <v>9300</v>
+      </c>
+      <c r="C34" s="5">
+        <v>780000</v>
+      </c>
+      <c r="D34" s="5">
+        <v>10</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="5">
+        <v>12621</v>
+      </c>
+      <c r="G34" s="5">
+        <v>44946</v>
+      </c>
+      <c r="H34" s="5">
+        <v>12929</v>
+      </c>
+      <c r="I34" s="5">
+        <v>9615</v>
+      </c>
+      <c r="J34" s="5">
+        <v>5497</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
+        <v>100</v>
+      </c>
+      <c r="B35" s="5">
+        <v>9300</v>
+      </c>
+      <c r="C35" s="5">
+        <v>780000</v>
+      </c>
+      <c r="D35" s="5">
+        <v>10</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="5">
+        <v>12621</v>
+      </c>
+      <c r="G35" s="5">
+        <v>2672</v>
+      </c>
+      <c r="H35" s="5">
+        <v>12041</v>
+      </c>
+      <c r="I35" s="5">
+        <v>8348</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
+        <v>100</v>
+      </c>
+      <c r="B36" s="5">
+        <v>9300</v>
+      </c>
+      <c r="C36" s="5">
+        <v>780000</v>
+      </c>
+      <c r="D36" s="5">
+        <v>10</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5">
+        <v>42274</v>
+      </c>
+      <c r="H36" s="5">
+        <v>888</v>
+      </c>
+      <c r="I36" s="5">
+        <v>1267</v>
+      </c>
+      <c r="J36" s="5">
+        <v>5497</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
+        <v>100</v>
+      </c>
+      <c r="B37" s="5">
+        <v>9300</v>
+      </c>
+      <c r="C37" s="5">
+        <v>780000</v>
+      </c>
+      <c r="D37" s="5">
+        <v>10</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="5">
+        <v>2.6192152500152499</v>
+      </c>
+      <c r="G37" s="5">
+        <v>3109.4373342990798</v>
+      </c>
+      <c r="H37" s="5">
+        <v>1142.27873659133</v>
+      </c>
+      <c r="I37" s="5">
+        <v>137.21799921989401</v>
+      </c>
+      <c r="J37" s="5">
+        <v>32.704013586044297</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
+        <v>110</v>
+      </c>
+      <c r="B38" s="5">
+        <v>10230</v>
+      </c>
+      <c r="C38" s="5">
+        <v>943800</v>
+      </c>
+      <c r="D38" s="5">
+        <v>11</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="5">
+        <v>15438</v>
+      </c>
+      <c r="G38" s="5">
+        <v>59659</v>
+      </c>
+      <c r="H38" s="5">
+        <v>15745</v>
+      </c>
+      <c r="I38" s="5">
+        <v>12108</v>
+      </c>
+      <c r="J38" s="5">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>110</v>
+      </c>
+      <c r="B39">
+        <v>10230</v>
+      </c>
+      <c r="C39">
+        <v>943800</v>
+      </c>
+      <c r="D39">
+        <v>11</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39">
+        <v>15438</v>
+      </c>
+      <c r="G39">
+        <v>3267</v>
+      </c>
+      <c r="H39" s="5">
+        <v>14763</v>
+      </c>
+      <c r="I39">
+        <v>10666</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>110</v>
+      </c>
+      <c r="B40">
+        <v>10230</v>
+      </c>
+      <c r="C40">
+        <v>943800</v>
+      </c>
+      <c r="D40">
+        <v>11</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>56392</v>
+      </c>
+      <c r="H40" s="5">
+        <v>982</v>
+      </c>
+      <c r="I40">
+        <v>1442</v>
+      </c>
+      <c r="J40">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>110</v>
+      </c>
+      <c r="B41">
+        <v>10230</v>
+      </c>
+      <c r="C41">
+        <v>943800</v>
+      </c>
+      <c r="D41">
+        <v>11</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41">
+        <v>3.6080355644225999</v>
+      </c>
+      <c r="G41">
+        <v>4466.9057781696301</v>
+      </c>
+      <c r="H41" s="5">
+        <v>1479.26207065582</v>
+      </c>
+      <c r="I41">
+        <v>181.35067343711799</v>
+      </c>
+      <c r="J41">
+        <v>44.945932865142801</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>120</v>
+      </c>
+      <c r="B42">
+        <v>11160</v>
+      </c>
+      <c r="C42">
+        <v>1123200</v>
+      </c>
+      <c r="D42">
+        <v>12</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42">
+        <v>18612</v>
+      </c>
+      <c r="G42">
+        <v>75855</v>
+      </c>
+      <c r="H42" s="5">
+        <v>18928</v>
+      </c>
+      <c r="I42">
+        <v>14773</v>
+      </c>
+      <c r="J42">
+        <v>8289</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>120</v>
+      </c>
+      <c r="B43">
+        <v>11160</v>
+      </c>
+      <c r="C43">
+        <v>1123200</v>
+      </c>
+      <c r="D43">
+        <v>12</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43">
+        <v>18612</v>
+      </c>
+      <c r="G43">
+        <v>4308</v>
+      </c>
+      <c r="H43" s="5">
+        <v>17820</v>
+      </c>
+      <c r="I43">
+        <v>13161</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>120</v>
+      </c>
+      <c r="B44">
+        <v>11160</v>
+      </c>
+      <c r="C44">
+        <v>1123200</v>
+      </c>
+      <c r="D44">
+        <v>12</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>71547</v>
+      </c>
+      <c r="H44" s="5">
+        <v>1108</v>
+      </c>
+      <c r="I44">
+        <v>1612</v>
+      </c>
+      <c r="J44">
+        <v>8289</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>120</v>
+      </c>
+      <c r="B45">
+        <v>11160</v>
+      </c>
+      <c r="C45">
+        <v>1123200</v>
+      </c>
+      <c r="D45">
+        <v>12</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45">
+        <v>4.5353832244873002</v>
+      </c>
+      <c r="G45">
+        <v>6325.6869657039597</v>
+      </c>
+      <c r="H45" s="5">
+        <v>1890.6336865425101</v>
+      </c>
+      <c r="I45">
+        <v>222.08769512176499</v>
+      </c>
+      <c r="J45">
+        <v>59.286038875579798</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>130</v>
+      </c>
+      <c r="B46">
+        <v>12090</v>
+      </c>
+      <c r="C46">
+        <v>1318200</v>
+      </c>
+      <c r="D46">
+        <v>13</v>
+      </c>
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46">
+        <v>22143</v>
+      </c>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5">
+        <v>22610</v>
+      </c>
+      <c r="I46">
+        <v>17761</v>
+      </c>
+      <c r="J46">
+        <v>9933</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>130</v>
+      </c>
+      <c r="B47">
+        <v>12090</v>
+      </c>
+      <c r="C47">
+        <v>1318200</v>
+      </c>
+      <c r="D47">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47">
+        <v>22143</v>
+      </c>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5">
+        <v>21449</v>
+      </c>
+      <c r="I47">
+        <v>15957</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>130</v>
+      </c>
+      <c r="B48">
+        <v>12090</v>
+      </c>
+      <c r="C48">
+        <v>1318200</v>
+      </c>
+      <c r="D48">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5">
+        <v>1161</v>
+      </c>
+      <c r="I48">
+        <v>1804</v>
+      </c>
+      <c r="J48">
+        <v>9933</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>130</v>
+      </c>
+      <c r="B49">
+        <v>12090</v>
+      </c>
+      <c r="C49">
+        <v>1318200</v>
+      </c>
+      <c r="D49">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49">
+        <v>5.86380863189697</v>
+      </c>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5">
+        <v>2481.3612282276099</v>
+      </c>
+      <c r="I49">
+        <v>294.03411173820399</v>
+      </c>
+      <c r="J49">
+        <v>88.607197761535602</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>140</v>
+      </c>
+      <c r="B50">
+        <v>13020</v>
+      </c>
+      <c r="C50">
+        <v>1528800</v>
+      </c>
+      <c r="D50">
+        <v>14</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50">
+        <v>25881</v>
+      </c>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5">
+        <v>26512</v>
+      </c>
+      <c r="I50">
+        <v>20941</v>
+      </c>
+      <c r="J50">
+        <v>11693</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>140</v>
+      </c>
+      <c r="B51">
+        <v>13020</v>
+      </c>
+      <c r="C51">
+        <v>1528800</v>
+      </c>
+      <c r="D51">
+        <v>14</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51">
+        <v>25881</v>
+      </c>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5">
+        <v>25125</v>
+      </c>
+      <c r="I51">
+        <v>18974</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>140</v>
+      </c>
+      <c r="B52">
+        <v>13020</v>
+      </c>
+      <c r="C52">
+        <v>1528800</v>
+      </c>
+      <c r="D52">
+        <v>14</v>
+      </c>
+      <c r="E52" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5">
+        <v>1387</v>
+      </c>
+      <c r="I52">
+        <v>1967</v>
+      </c>
+      <c r="J52">
+        <v>11693</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>140</v>
+      </c>
+      <c r="B53">
+        <v>13020</v>
+      </c>
+      <c r="C53">
+        <v>1528800</v>
+      </c>
+      <c r="D53">
+        <v>14</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53">
+        <v>7.4713079929351798</v>
+      </c>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5">
+        <v>3285.4700982570598</v>
+      </c>
+      <c r="I53">
+        <v>350.91553854942299</v>
+      </c>
+      <c r="J53">
+        <v>114.282777309417</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>150</v>
+      </c>
+      <c r="B54">
+        <v>13950</v>
+      </c>
+      <c r="C54">
+        <v>1755000</v>
+      </c>
+      <c r="D54">
+        <v>15</v>
+      </c>
+      <c r="E54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54">
+        <v>30021</v>
+      </c>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5">
+        <v>30759</v>
+      </c>
+      <c r="I54">
+        <v>24762</v>
+      </c>
+      <c r="J54">
+        <v>13630</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>150</v>
+      </c>
+      <c r="B55">
+        <v>13950</v>
+      </c>
+      <c r="C55">
+        <v>1755000</v>
+      </c>
+      <c r="D55">
+        <v>15</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55">
+        <v>30021</v>
+      </c>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5">
+        <v>29525</v>
+      </c>
+      <c r="I55">
+        <v>22656</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>150</v>
+      </c>
+      <c r="B56">
+        <v>13950</v>
+      </c>
+      <c r="C56">
+        <v>1755000</v>
+      </c>
+      <c r="D56">
+        <v>15</v>
+      </c>
+      <c r="E56" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5">
+        <v>1234</v>
+      </c>
+      <c r="I56">
+        <v>2106</v>
+      </c>
+      <c r="J56">
+        <v>13630</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>150</v>
+      </c>
+      <c r="B57">
+        <v>13950</v>
+      </c>
+      <c r="C57">
+        <v>1755000</v>
+      </c>
+      <c r="D57">
+        <v>15</v>
+      </c>
+      <c r="E57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57">
+        <v>9.4459202289581299</v>
+      </c>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5">
+        <v>4137.1222221851303</v>
+      </c>
+      <c r="I57">
+        <v>453.48648071289</v>
+      </c>
+      <c r="J57">
+        <v>147.632944822311</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>160</v>
+      </c>
+      <c r="B58">
+        <v>14880</v>
+      </c>
+      <c r="C58">
+        <v>1996800</v>
+      </c>
+      <c r="D58">
+        <v>16</v>
+      </c>
+      <c r="E58" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58">
+        <v>34365</v>
+      </c>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5">
+        <v>35099</v>
+      </c>
+      <c r="I58">
+        <v>28656</v>
+      </c>
+      <c r="J58">
+        <v>15730</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>160</v>
+      </c>
+      <c r="B59">
+        <v>14880</v>
+      </c>
+      <c r="C59">
+        <v>1996800</v>
+      </c>
+      <c r="D59">
+        <v>16</v>
+      </c>
+      <c r="E59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59">
+        <v>34365</v>
+      </c>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5">
+        <v>33669</v>
+      </c>
+      <c r="I59">
+        <v>26319</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>160</v>
+      </c>
+      <c r="B60">
+        <v>14880</v>
+      </c>
+      <c r="C60">
+        <v>1996800</v>
+      </c>
+      <c r="D60">
+        <v>16</v>
+      </c>
+      <c r="E60" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5">
+        <v>1430</v>
+      </c>
+      <c r="I60">
+        <v>2337</v>
+      </c>
+      <c r="J60">
+        <v>15730</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>160</v>
+      </c>
+      <c r="B61">
+        <v>14880</v>
+      </c>
+      <c r="C61">
+        <v>1996800</v>
+      </c>
+      <c r="D61">
+        <v>16</v>
+      </c>
+      <c r="E61" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61">
+        <v>11.7962484359741</v>
+      </c>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5">
+        <v>4112.0447909832001</v>
+      </c>
+      <c r="I61">
+        <v>538.54509615898098</v>
+      </c>
+      <c r="J61">
+        <v>209.38966846465999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8440F42-79DA-4E19-A1FE-A0F5E71ABCAA}">
+  <dimension ref="A1:J33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1">
+        <v>200</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2551</v>
+      </c>
+      <c r="D2" s="1">
+        <v>340000</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>27504</v>
+      </c>
+      <c r="H2">
+        <v>47976</v>
+      </c>
+      <c r="I2">
+        <v>20857</v>
+      </c>
+      <c r="J2">
+        <v>8686</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>200</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2551</v>
+      </c>
+      <c r="D3" s="1">
+        <v>340000</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>27504</v>
+      </c>
+      <c r="H3">
+        <v>47976</v>
+      </c>
+      <c r="I3">
+        <v>19912</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1">
+        <v>200</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2551</v>
+      </c>
+      <c r="D4" s="1">
+        <v>340000</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>945</v>
+      </c>
+      <c r="J4">
+        <v>8686</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>200</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2551</v>
+      </c>
+      <c r="D5" s="1">
+        <v>340000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>18.5431034564971</v>
+      </c>
+      <c r="H5">
+        <v>763.02386689186096</v>
+      </c>
+      <c r="I5">
+        <v>456.18051004409699</v>
+      </c>
+      <c r="J5">
+        <v>245.77926182746799</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>200</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2551</v>
+      </c>
+      <c r="D6" s="1">
+        <v>340000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>56004</v>
+      </c>
+      <c r="H6">
+        <v>105355</v>
+      </c>
+      <c r="I6">
+        <v>44106</v>
+      </c>
+      <c r="J6">
+        <v>25077</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>200</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2551</v>
+      </c>
+      <c r="D7" s="1">
+        <v>340000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>56004</v>
+      </c>
+      <c r="H7">
+        <v>105355</v>
+      </c>
+      <c r="I7">
+        <v>41397</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>200</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2551</v>
+      </c>
+      <c r="D8" s="1">
+        <v>340000</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>2709</v>
+      </c>
+      <c r="J8">
+        <v>25077</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>200</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2551</v>
+      </c>
+      <c r="D9" s="1">
+        <v>340000</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9">
+        <v>19.3567714691162</v>
+      </c>
+      <c r="H9">
+        <v>673.38799715042103</v>
+      </c>
+      <c r="I9">
+        <v>468.08907270431502</v>
+      </c>
+      <c r="J9">
+        <v>243.325571775436</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>200</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2551</v>
+      </c>
+      <c r="D10" s="1">
+        <v>340000</v>
+      </c>
+      <c r="E10" s="1">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>77976</v>
+      </c>
+      <c r="H10">
+        <v>147372</v>
+      </c>
+      <c r="I10">
+        <v>64058</v>
+      </c>
+      <c r="J10">
+        <v>41030</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>200</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2551</v>
+      </c>
+      <c r="D11" s="1">
+        <v>340000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>77976</v>
+      </c>
+      <c r="H11">
+        <v>147372</v>
+      </c>
+      <c r="I11">
+        <v>59433</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>200</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2551</v>
+      </c>
+      <c r="D12" s="1">
+        <v>340000</v>
+      </c>
+      <c r="E12" s="1">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>4625</v>
+      </c>
+      <c r="J12">
+        <v>41030</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1">
+        <v>200</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2551</v>
+      </c>
+      <c r="D13" s="1">
+        <v>340000</v>
+      </c>
+      <c r="E13" s="1">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13">
+        <v>19.7393157482147</v>
+      </c>
+      <c r="H13">
+        <v>663.53723669052101</v>
+      </c>
+      <c r="I13">
+        <v>464.93771147727898</v>
+      </c>
+      <c r="J13">
+        <v>250.89782524108799</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1">
+        <v>200</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2551</v>
+      </c>
+      <c r="D14" s="1">
+        <v>340000</v>
+      </c>
+      <c r="E14" s="1">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>97704</v>
+      </c>
+      <c r="H14">
+        <v>185006</v>
+      </c>
+      <c r="I14">
+        <v>82188</v>
+      </c>
+      <c r="J14">
+        <v>56352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1">
+        <v>200</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2551</v>
+      </c>
+      <c r="D15" s="1">
+        <v>340000</v>
+      </c>
+      <c r="E15" s="1">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <v>97704</v>
+      </c>
+      <c r="H15">
+        <v>185006</v>
+      </c>
+      <c r="I15">
+        <v>75858</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1">
+        <v>200</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2551</v>
+      </c>
+      <c r="D16" s="1">
+        <v>340000</v>
+      </c>
+      <c r="E16" s="1">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>6330</v>
+      </c>
+      <c r="J16">
+        <v>56352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1">
+        <v>200</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2551</v>
+      </c>
+      <c r="D17" s="1">
+        <v>340000</v>
+      </c>
+      <c r="E17" s="1">
+        <v>8</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17">
+        <v>20.0594174861907</v>
+      </c>
+      <c r="H17">
+        <v>656.76117014884903</v>
+      </c>
+      <c r="I17">
+        <v>475.00089049339198</v>
+      </c>
+      <c r="J17">
+        <v>240.23447847366299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1">
+        <v>200</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2551</v>
+      </c>
+      <c r="D18" s="1">
+        <v>340000</v>
+      </c>
+      <c r="E18" s="1">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18">
+        <v>119844</v>
+      </c>
+      <c r="H18">
+        <v>223537</v>
+      </c>
+      <c r="I18">
+        <v>101521</v>
+      </c>
+      <c r="J18">
+        <v>77969</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1">
+        <v>200</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2551</v>
+      </c>
+      <c r="D19" s="1">
+        <v>340000</v>
+      </c>
+      <c r="E19" s="1">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19">
+        <v>119844</v>
+      </c>
+      <c r="H19">
+        <v>223537</v>
+      </c>
+      <c r="I19">
+        <v>92936</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1">
+        <v>200</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2551</v>
+      </c>
+      <c r="D20" s="1">
+        <v>340000</v>
+      </c>
+      <c r="E20" s="1">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>8585</v>
+      </c>
+      <c r="J20">
+        <v>77969</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="1">
+        <v>200</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2551</v>
+      </c>
+      <c r="D21" s="1">
+        <v>340000</v>
+      </c>
+      <c r="E21" s="1">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21">
+        <v>20.272521018981902</v>
+      </c>
+      <c r="H21">
+        <v>684.31049156188897</v>
+      </c>
+      <c r="I21">
+        <v>474.28593945503201</v>
+      </c>
+      <c r="J21">
+        <v>238.97212386131201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>